--- a/Files/Excel/Hyundai.xlsx
+++ b/Files/Excel/Hyundai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23D6A09-F3D2-4DB8-AD07-25699E5B8C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E55050E-B33C-41E1-A8AB-935826815035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,168 +20,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Hyundai Accent</t>
-  </si>
-  <si>
-    <t>Hyundai Atos</t>
-  </si>
-  <si>
-    <t>Hyundai Atos Prime</t>
-  </si>
-  <si>
-    <t>Hyundai Azera</t>
-  </si>
-  <si>
-    <t>Hyundai BlueOn</t>
-  </si>
-  <si>
-    <t>Hyundai Creta</t>
-  </si>
-  <si>
-    <t>Hyundai Dynasty</t>
-  </si>
-  <si>
-    <t>Hyundai Elantra</t>
-  </si>
-  <si>
-    <t>Hyundai Entourage</t>
-  </si>
-  <si>
-    <t>Hyundai Eon</t>
-  </si>
-  <si>
-    <t>Hyundai Equus</t>
-  </si>
-  <si>
-    <t>Hyundai Excel</t>
-  </si>
-  <si>
-    <t>Hyundai Galloper</t>
-  </si>
-  <si>
-    <t>Hyundai Genesis</t>
-  </si>
-  <si>
-    <t>Hyundai Genesis Concept</t>
-  </si>
-  <si>
-    <t>Hyundai Genesis Coupe</t>
-  </si>
-  <si>
-    <t>Hyundai Getz</t>
-  </si>
-  <si>
-    <t>Hyundai H100</t>
-  </si>
-  <si>
-    <t>Hyundai HB20</t>
-  </si>
-  <si>
-    <t>Hyundai HB20S</t>
-  </si>
-  <si>
-    <t>Hyundai HED-5</t>
-  </si>
-  <si>
-    <t>Hyundai HR</t>
-  </si>
-  <si>
-    <t>Hyundai i10</t>
-  </si>
-  <si>
-    <t>Hyundai i20</t>
-  </si>
-  <si>
-    <t>Hyundai i30</t>
-  </si>
-  <si>
-    <t>Hyundai i40</t>
-  </si>
-  <si>
-    <t>Hyundai i800</t>
-  </si>
-  <si>
-    <t>Hyundai ix20</t>
-  </si>
-  <si>
-    <t>Hyundai ix35</t>
-  </si>
-  <si>
-    <t>Hyundai ix55</t>
-  </si>
-  <si>
-    <t>Hyundai Kauai</t>
-  </si>
-  <si>
-    <t>Hyundai Kona</t>
-  </si>
-  <si>
-    <t>Hyundai Lafesta</t>
-  </si>
-  <si>
-    <t>Hyundai Matrix</t>
-  </si>
-  <si>
-    <t>Hyundai Nuvis</t>
-  </si>
-  <si>
-    <t>Hyundai Pony</t>
-  </si>
-  <si>
-    <t>Hyundai QarmaQ Concept</t>
-  </si>
-  <si>
-    <t>Hyundai S-Coupe</t>
-  </si>
-  <si>
-    <t>Hyundai S-Coupé</t>
-  </si>
-  <si>
-    <t>Hyundai Scoupe</t>
-  </si>
-  <si>
-    <t>Hyundai Santa Cruz</t>
-  </si>
-  <si>
-    <t>Hyundai Santa Fe</t>
-  </si>
-  <si>
-    <t>Hyundai Santamo</t>
-  </si>
-  <si>
-    <t>Hyundai Sonata</t>
-  </si>
-  <si>
-    <t>Hyundai Starex</t>
-  </si>
-  <si>
-    <t>Hyundai Stellar</t>
-  </si>
-  <si>
-    <t>Hyundai Terracan</t>
-  </si>
-  <si>
-    <t>Hyundai Tiburon</t>
-  </si>
-  <si>
-    <t>Hyundai Trajet</t>
-  </si>
-  <si>
-    <t>Hyundai Tucson</t>
-  </si>
-  <si>
-    <t>Hyundai Veloster</t>
-  </si>
-  <si>
-    <t>Hyundai Veracruz</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Accent</t>
+  </si>
+  <si>
+    <t>Atos</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>Azera</t>
+  </si>
+  <si>
+    <t>BlueOn</t>
+  </si>
+  <si>
+    <t>Creta</t>
+  </si>
+  <si>
+    <t>Dynasty</t>
+  </si>
+  <si>
+    <t>Elantra</t>
+  </si>
+  <si>
+    <t>Entourage</t>
+  </si>
+  <si>
+    <t>Eon</t>
+  </si>
+  <si>
+    <t>Equus</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Galloper</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Coupe</t>
+  </si>
+  <si>
+    <t>Getz</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Kauai</t>
+  </si>
+  <si>
+    <t>Kona</t>
+  </si>
+  <si>
+    <t>Lafesta</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Nuvis</t>
+  </si>
+  <si>
+    <t>Pony</t>
+  </si>
+  <si>
+    <t>Coupé</t>
+  </si>
+  <si>
+    <t>Scoupe</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Santamo</t>
+  </si>
+  <si>
+    <t>Sonata</t>
+  </si>
+  <si>
+    <t>Starex</t>
+  </si>
+  <si>
+    <t>Stellar</t>
+  </si>
+  <si>
+    <t>Terracan</t>
+  </si>
+  <si>
+    <t>Tiburon</t>
+  </si>
+  <si>
+    <t>Trajet</t>
+  </si>
+  <si>
+    <t>Tucson</t>
+  </si>
+  <si>
+    <t>Veloster</t>
+  </si>
+  <si>
+    <t>Veracruz</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ix</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
   </si>
 </sst>
 </file>
@@ -544,439 +517,598 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B53"/>
+      <selection activeCell="A53" sqref="A2:A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B26">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>800</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
         <v>40</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
